--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
   <si>
     <t>土地坐落</t>
   </si>
@@ -290,6 +290,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -306,6 +309,9 @@
   </si>
   <si>
     <t>安碩A50中國</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-06</t>
@@ -1928,13 +1934,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1962,13 +1968,16 @@
       <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1986,21 +1995,24 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2018,21 +2030,24 @@
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2050,12 +2065,15 @@
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>855</v>
       </c>
     </row>
@@ -2074,19 +2092,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>60</v>
@@ -2097,7 +2115,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2120,7 +2138,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2156,19 +2174,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2176,22 +2194,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2199,22 +2217,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2250,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2258,19 +2276,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2278,10 +2296,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2293,10 +2311,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2308,10 +2326,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2323,10 +2341,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2338,10 +2356,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2353,10 +2371,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2368,10 +2386,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2383,10 +2401,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -293,6 +293,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -302,6 +305,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -314,7 +323,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmp94f81</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1934,13 +1949,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1971,13 +1986,22 @@
       <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1995,24 +2019,33 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2030,24 +2063,33 @@
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2065,16 +2107,25 @@
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2092,19 +2143,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>60</v>
@@ -2115,7 +2166,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2138,7 +2189,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -2174,19 +2225,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2194,22 +2245,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2217,22 +2268,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2250,22 +2301,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2276,19 +2327,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2296,10 +2347,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2311,10 +2362,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2326,10 +2377,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2341,10 +2392,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2356,10 +2407,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2371,10 +2422,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2386,10 +2437,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2401,10 +2452,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,9 +21,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="145">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360003地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段00090007地號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三星段01670000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段05310000地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段00580009地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680011地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680024地號</t>
+  </si>
+  <si>
+    <t>臺中市北區乾溝子段01820040地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>120000分之3750</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之117</t>
+  </si>
+  <si>
+    <t>2742分之20</t>
+  </si>
+  <si>
+    <t>葉宜津</t>
+  </si>
+  <si>
+    <t>趙哲宏</t>
+  </si>
+  <si>
+    <t>趙哲宏.</t>
+  </si>
+  <si>
+    <t>70年11月09日</t>
+  </si>
+  <si>
+    <t>88年03月25日</t>
+  </si>
+  <si>
+    <t>88年05月20日</t>
+  </si>
+  <si>
+    <t>84年08月31曰</t>
+  </si>
+  <si>
+    <t>82年07月21日</t>
+  </si>
+  <si>
+    <t>86年08月16日</t>
+  </si>
+  <si>
+    <t>99年08月20日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmp94f81</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,124 +182,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市霧峰區柳樹湳段 0136-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市霧峰區柳樹湳段 0136-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 0009-0007 地號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三星段0167-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段0531-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0058-0009 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0011 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0024 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區乾溝子段0182-0040 地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>120000 分 之 3750</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 117</t>
-  </si>
-  <si>
-    <t>2742分之 20</t>
-  </si>
-  <si>
-    <t>葉宜津</t>
-  </si>
-  <si>
-    <t>趙哲宏</t>
-  </si>
-  <si>
-    <t>趙哲宏.</t>
-  </si>
-  <si>
-    <t>70年11月 09日</t>
-  </si>
-  <si>
-    <t>88年03月 25日</t>
-  </si>
-  <si>
-    <t>88年05月 20日</t>
-  </si>
-  <si>
-    <t>84年08月 31曰</t>
-  </si>
-  <si>
-    <t>82年07月 21日</t>
-  </si>
-  <si>
-    <t>86年08月 16日</t>
-  </si>
-  <si>
-    <t>99年08月 20日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01569-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01579-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三興段00097-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段00426-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段04976-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段05058-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市北區乾溝子段01340-000 建號</t>
-  </si>
-  <si>
-    <t>120000 分 之 5650</t>
+    <t>臺北市中山區榮星段七小段01569000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段01579000建號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三興段00097000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段00426000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段04976000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段05058000建號</t>
+  </si>
+  <si>
+    <t>臺中市北區乾溝子段01340000建號</t>
+  </si>
+  <si>
+    <t>120000分之5650</t>
   </si>
   <si>
     <t>86分之1</t>
   </si>
   <si>
-    <t>80年05月 20日</t>
-  </si>
-  <si>
-    <t>84年08月 31日</t>
+    <t>80年05月20日</t>
+  </si>
+  <si>
+    <t>84年08月31日</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -179,16 +230,16 @@
     <t>國瑞NV1EPE</t>
   </si>
   <si>
-    <t>94年04月 12日</t>
-  </si>
-  <si>
-    <t>93年04月 15日</t>
+    <t>94年04月12日</t>
+  </si>
+  <si>
+    <t>93年04月15日</t>
   </si>
   <si>
     <t>貝買</t>
   </si>
   <si>
-    <t>nrrfofcy 貝賣</t>
+    <t>nrrfofcy貝賣</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -233,7 +284,7 @@
     <t>日盛國際商業銀行</t>
   </si>
   <si>
-    <t>中國信託銀行南台南簡易 分行</t>
+    <t>中國信託銀行南台南簡易分行</t>
   </si>
   <si>
     <t>臺灣土地銀行北台南分行</t>
@@ -272,12 +323,6 @@
     <t>趙〇雅</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -290,27 +335,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -323,15 +347,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-06</t>
-  </si>
-  <si>
-    <t>tmp94f81</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -347,7 +362,7 @@
     <t>富達新興市場</t>
   </si>
   <si>
-    <t>富蘭克林TANO印度私募基 金</t>
+    <t>富蘭克林TANO印度私募基金</t>
   </si>
   <si>
     <t>債務人</t>
@@ -368,22 +383,22 @@
     <t>長期擔保貸款</t>
   </si>
   <si>
-    <t>台灣土地銀行民權分行 臺北市中山區民權西路</t>
-  </si>
-  <si>
-    <t>華南銀行新營分行 臺南市新營區新進路</t>
-  </si>
-  <si>
-    <t>88年04月 07日</t>
-  </si>
-  <si>
-    <t>100年04月 15日</t>
-  </si>
-  <si>
-    <t>88年4月7 曰</t>
-  </si>
-  <si>
-    <t>100年4月 15曰</t>
+    <t>台灣土地銀行民權分行臺北市中山區民權西路</t>
+  </si>
+  <si>
+    <t>華南銀行新營分行臺南市新營區新進路</t>
+  </si>
+  <si>
+    <t>88年04月07日</t>
+  </si>
+  <si>
+    <t>100年04月15日</t>
+  </si>
+  <si>
+    <t>88年4月7曰</t>
+  </si>
+  <si>
+    <t>100年4月15曰</t>
   </si>
   <si>
     <t>投資人</t>
@@ -401,7 +416,7 @@
     <t>(十三）備</t>
   </si>
   <si>
-    <t>1.葉宜津-</t>
+    <t>1.葉宜津</t>
   </si>
   <si>
     <t>2.葉宜津：</t>
@@ -422,7 +437,7 @@
     <t>7.趙哲宏：</t>
   </si>
   <si>
-    <t>美國Blackhawk Gold有限責 任公司</t>
+    <t>美國BlackhawkGold有限責任公司</t>
   </si>
   <si>
     <t>註</t>
@@ -434,10 +449,10 @@
     <t>中國人壽</t>
   </si>
   <si>
-    <t>112N. Third Street McCall, Idaho 83638 112N. Third Street McCall, Idaho 83638</t>
-  </si>
-  <si>
-    <t>100年04月 26日</t>
+    <t>112N.ThirdStreetMcCallIdaho83638112N.ThirdStreetMcCallIdaho83638</t>
+  </si>
+  <si>
+    <t>100年04月26日</t>
   </si>
   <si>
     <t>投資</t>
@@ -799,13 +814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,239 +842,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>855</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>855</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>685</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>855</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>855</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>79.5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>855</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>855</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>855</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>855</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>1448</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2">
         <v>462600</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>855</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1077,25 +1302,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1103,25 +1328,25 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>97.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1129,25 +1354,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>179.58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1155,25 +1380,25 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>76.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1181,25 +1406,25 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>88.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1207,25 +1432,25 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
         <v>332.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1233,25 +1458,25 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <v>24.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1259,22 +1484,22 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>50.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>199900</v>
@@ -1295,22 +1520,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1318,22 +1543,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1341,22 +1566,22 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1374,22 +1599,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1397,16 +1622,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1418,16 +1643,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1439,16 +1664,16 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1460,16 +1685,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1481,16 +1706,16 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1502,16 +1727,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1523,16 +1748,16 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1544,16 +1769,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1565,16 +1790,16 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1586,16 +1811,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1607,16 +1832,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1628,16 +1853,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1649,16 +1874,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1670,16 +1895,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1691,16 +1916,16 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1712,16 +1937,16 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1733,16 +1958,16 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1754,16 +1979,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2">
         <v>178728.64</v>
@@ -1777,16 +2002,16 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1798,16 +2023,16 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1819,16 +2044,16 @@
         <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1840,16 +2065,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1861,16 +2086,16 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1882,16 +2107,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1903,16 +2128,16 @@
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2">
         <v>77.01</v>
@@ -1926,16 +2151,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1957,43 +2182,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2001,10 +2226,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>71</v>
@@ -2013,28 +2238,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
         <v>93</v>
@@ -2045,10 +2270,10 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>90000</v>
@@ -2057,28 +2282,28 @@
         <v>3.25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2">
         <v>94</v>
@@ -2089,10 +2314,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>4000</v>
@@ -2101,28 +2326,28 @@
         <v>11.7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>855</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2">
         <v>95</v>
@@ -2143,22 +2368,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2166,10 +2391,10 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>1192.81</v>
@@ -2178,7 +2403,7 @@
         <v>20.59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
         <v>724027.56</v>
@@ -2189,10 +2414,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2201,7 +2426,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2">
         <v>12717111.88</v>
@@ -2222,22 +2447,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2245,22 +2470,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2268,22 +2493,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2301,22 +2526,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2324,22 +2549,22 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2347,10 +2572,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2362,10 +2587,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2377,10 +2602,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2392,10 +2617,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2407,10 +2632,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2422,10 +2647,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2437,10 +2662,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2452,10 +2677,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市霧峰區柳樹湳段01360003地號</t>
@@ -161,27 +164,6 @@
     <t>tmp94f81</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市中山區榮星段七小段01569000建號</t>
   </si>
   <si>
@@ -218,48 +200,30 @@
     <t>貝賣</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞NV1EPE</t>
   </si>
   <si>
     <t>94年04月12日</t>
   </si>
   <si>
+    <t>貝買</t>
+  </si>
+  <si>
     <t>93年04月15日</t>
   </si>
   <si>
-    <t>貝買</t>
-  </si>
-  <si>
     <t>nrrfofcy貝賣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
@@ -290,9 +254,6 @@
     <t>臺灣土地銀行北台南分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -305,9 +266,6 @@
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
@@ -332,12 +290,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>國票金控</t>
-  </si>
-  <si>
     <t>台泥國際(香港）</t>
   </si>
   <si>
@@ -347,70 +299,43 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>富達新興市場</t>
   </si>
   <si>
     <t>富蘭克林TANO印度私募基金</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>長期擔保貸款</t>
   </si>
   <si>
     <t>台灣土地銀行民權分行臺北市中山區民權西路</t>
   </si>
   <si>
+    <t>88年04月07日</t>
+  </si>
+  <si>
+    <t>88年4月7曰</t>
+  </si>
+  <si>
     <t>華南銀行新營分行臺南市新營區新進路</t>
   </si>
   <si>
-    <t>88年04月07日</t>
-  </si>
-  <si>
     <t>100年04月15日</t>
   </si>
   <si>
-    <t>88年4月7曰</t>
-  </si>
-  <si>
     <t>100年4月15曰</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
+    <t>美國BlackhawkGold有限責任公司</t>
+  </si>
+  <si>
+    <t>112N.ThirdStreetMcCallIdaho83638112N.ThirdStreetMcCallIdaho83638</t>
+  </si>
+  <si>
+    <t>100年04月26日</t>
+  </si>
+  <si>
+    <t>投資</t>
   </si>
   <si>
     <t>(十三）備</t>
@@ -437,9 +362,6 @@
     <t>7.趙哲宏：</t>
   </si>
   <si>
-    <t>美國BlackhawkGold有限責任公司</t>
-  </si>
-  <si>
     <t>註</t>
   </si>
   <si>
@@ -447,15 +369,6 @@
   </si>
   <si>
     <t>中國人壽</t>
-  </si>
-  <si>
-    <t>112N.ThirdStreetMcCallIdaho83638112N.ThirdStreetMcCallIdaho83638</t>
-  </si>
-  <si>
-    <t>100年04月26日</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -814,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,428 +776,435 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1486</v>
+        <v>5105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>855</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>685</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>855</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.03125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.40625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
         <v>45</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>685</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>855</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>45</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>45</v>
+        <v>79.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>855</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>855</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>855</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>282</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2">
         <v>855</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0117</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.2994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1448</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2">
+        <v>462600</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>282</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2">
         <v>855</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1448</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2">
-        <v>462600</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2">
-        <v>855</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
+      <c r="P9" s="2">
+        <v>0.00729394602479942</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.5616338439096</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1302,206 +1222,180 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C1" s="1">
+        <v>97.88</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
-        <v>97.88</v>
+        <v>179.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>179.58</v>
+        <v>76.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>76.32</v>
+        <v>88.31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
-        <v>88.31</v>
+        <v>332.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
-        <v>332.3</v>
+        <v>24.9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50.21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2">
-        <v>50.21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H7" s="2">
         <v>199900</v>
       </c>
     </row>
@@ -1512,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,68 +1414,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1599,571 +1470,548 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>129770</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>129770</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>4280</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2324</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>13542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>12</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>5960</v>
+        <v>6043485</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>6043485</v>
+        <v>31412</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>31412</v>
+        <v>815740</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>815740</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>3072</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>6231</v>
+        <v>49311</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>49311</v>
+        <v>327925</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>327925</v>
+        <v>528985</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>528985</v>
+        <v>1587773</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1587773</v>
+        <v>51656</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>51656</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>178728.64</v>
+      </c>
       <c r="G18" s="2">
-        <v>17523</v>
+        <v>679168.83</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2">
-        <v>178728.64</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>679168.83</v>
+        <v>251939</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>251939</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>627</v>
+        <v>147900</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>147900</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>612</v>
+        <v>159527</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>159527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="2">
+        <v>77.01</v>
+      </c>
       <c r="G25" s="2">
-        <v>590</v>
+        <v>2270.25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2">
-        <v>77.01</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>2270.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>86</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
         <v>117106</v>
       </c>
     </row>
@@ -2174,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,16 +2036,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2223,133 +2071,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
-        <v>71</v>
+        <v>90000</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
-        <v>710</v>
+        <v>1111500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="E3" s="2">
-        <v>3.25</v>
+        <v>11.7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2">
-        <v>1111500</v>
+        <v>177840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="2">
-        <v>177840</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2">
-        <v>855</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="2">
         <v>95</v>
       </c>
     </row>
@@ -2360,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2368,67 +2172,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1192.81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="G1" s="1">
+        <v>724027.56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
-        <v>1192.81</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>20.59</v>
+        <v>431381</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
-        <v>724027.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>431381</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="2">
         <v>12717111.88</v>
       </c>
     </row>
@@ -2439,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2447,68 +2228,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
-        <v>1185455</v>
+        <v>4000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2276,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2526,56 +2284,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="E1" s="1">
+        <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2584,13 +2334,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2599,13 +2349,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2614,13 +2364,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2629,13 +2379,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2644,13 +2394,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2659,34 +2409,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>146</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+  </si>
+  <si>
     <t>臺中市霧峰區柳樹湳段01360003地號</t>
   </si>
   <si>
@@ -288,6 +291,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國票金控</t>
   </si>
   <si>
     <t>台泥國際(香港）</t>
@@ -727,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,72 +791,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5105</v>
+        <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>855</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1021</v>
+        <v>297.2</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>685</v>
+        <v>5105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -859,45 +865,45 @@
         <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>855</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.03125</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.40625</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>45</v>
+        <v>685</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -912,48 +918,48 @@
         <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>855</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
       <c r="Q4" s="2">
-        <v>45</v>
+        <v>21.40625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>79.5</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -962,248 +968,301 @@
         <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>855</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>79.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>93</v>
+        <v>79.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>855</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>93</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>855</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>855</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0117</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>3.2994</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1448</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <v>462600</v>
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>855</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0117</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.2994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1448</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2">
+        <v>462600</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="2">
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>855</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
         <v>22</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>0.00729394602479942</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>10.5616338439096</v>
       </c>
     </row>
@@ -1214,189 +1273,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1">
-        <v>97.88</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="2">
-        <v>179.58</v>
+        <v>97.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>855</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>76.32</v>
+        <v>179.58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>855</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0470833333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8.455225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>88.31</v>
+        <v>76.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>855</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2">
-        <v>332.3</v>
+        <v>88.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>855</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>88.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="2">
-        <v>24.9</v>
+        <v>332.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>855</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>50.21</v>
+        <v>24.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>855</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0116279069767442</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.28953488372093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50.21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2">
         <v>199900</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>855</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>50.21</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,45 +1715,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1470,16 +1794,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1488,154 +1812,154 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>4280</v>
+        <v>129770</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>2324</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>13542</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>12</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>5960</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>6043485</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>31412</v>
+        <v>6043485</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>72</v>
@@ -1644,374 +1968,395 @@
         <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>815740</v>
+        <v>31412</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>3072</v>
+        <v>815740</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>6231</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>49311</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>327925</v>
+        <v>49311</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>528985</v>
+        <v>327925</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1587773</v>
+        <v>528985</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>51656</v>
+        <v>1587773</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>17523</v>
+        <v>51656</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
-        <v>178728.64</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>679168.83</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="2">
+        <v>178728.64</v>
+      </c>
       <c r="G19" s="2">
-        <v>251939</v>
+        <v>679168.83</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>627</v>
+        <v>251939</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>147900</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>612</v>
+        <v>147900</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>159527</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>590</v>
+        <v>159527</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
-        <v>77.01</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>2270.25</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2">
+        <v>77.01</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2270.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>117106</v>
       </c>
     </row>
@@ -2022,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2036,13 +2381,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2071,89 +2416,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>90000</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
-        <v>1111500</v>
+        <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="E3" s="2">
-        <v>11.7</v>
+        <v>3.25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
-        <v>177840</v>
+        <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
+        <v>177840</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
         <v>95</v>
       </c>
     </row>
@@ -2164,63 +2553,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1192.81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20.59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1">
-        <v>724027.56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>431381</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2">
-        <v>12717111.88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2231,42 +2564,144 @@
         <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1192.81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1">
+        <v>724027.56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1192.81</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20.59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2">
+        <v>724027.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>431381</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12717111.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1185455</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>131</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
         <v>4000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2711,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2284,48 +2719,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2334,13 +2777,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2349,13 +2792,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2364,13 +2807,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2379,13 +2822,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2394,13 +2837,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2409,19 +2852,34 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>146</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -203,16 +203,19 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>國瑞NV1EPE</t>
   </si>
   <si>
     <t>94年04月12日</t>
   </si>
   <si>
+    <t>93年04月15日</t>
+  </si>
+  <si>
     <t>貝買</t>
-  </si>
-  <si>
-    <t>93年04月15日</t>
   </si>
   <si>
     <t>nrrfofcy貝賣</t>
@@ -1707,38 +1710,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1747,21 +1771,42 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1773,10 +1818,31 @@
         <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1794,13 +1860,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1815,13 +1881,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1836,13 +1902,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1857,13 +1923,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1878,13 +1944,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1899,13 +1965,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1920,13 +1986,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1941,13 +2007,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1962,13 +2028,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1983,13 +2049,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2004,13 +2070,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2025,13 +2091,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2046,13 +2112,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2067,13 +2133,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -2088,13 +2154,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2109,13 +2175,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2130,13 +2196,13 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -2151,13 +2217,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2172,13 +2238,13 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -2195,16 +2261,16 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2216,16 +2282,16 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2237,16 +2303,16 @@
         <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2258,16 +2324,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2279,16 +2345,16 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2300,16 +2366,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2321,13 +2387,13 @@
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -2344,13 +2410,13 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -2381,13 +2447,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2419,7 +2485,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2431,13 +2497,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2463,7 +2529,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2475,13 +2541,13 @@
         <v>3.25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2507,7 +2573,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2519,13 +2585,13 @@
         <v>11.7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2">
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2561,7 +2627,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2573,7 +2639,7 @@
         <v>20.59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1">
         <v>724027.56</v>
@@ -2584,7 +2650,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2596,7 +2662,7 @@
         <v>20.59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>724027.56</v>
@@ -2607,7 +2673,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2619,7 +2685,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>12717111.88</v>
@@ -2640,22 +2706,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2663,22 +2729,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2686,22 +2752,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2722,19 +2788,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2745,19 +2811,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2765,10 +2831,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2780,10 +2846,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2795,10 +2861,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2810,10 +2876,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2825,10 +2891,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2840,10 +2906,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2855,10 +2921,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2870,10 +2936,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -203,6 +203,9 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t>nrrfofcy貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣土地銀行</t>
@@ -1358,7 +1364,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>45</v>
@@ -1411,7 +1417,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>45</v>
@@ -1464,7 +1470,7 @@
         <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -1517,7 +1523,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -1570,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -1623,7 +1629,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
@@ -1676,7 +1682,7 @@
         <v>199900</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>45</v>
@@ -1721,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1762,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1771,16 +1777,16 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -1806,7 +1812,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -1815,16 +1821,16 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -1860,13 +1866,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1881,13 +1887,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1902,13 +1908,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1923,13 +1929,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1944,13 +1950,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1965,13 +1971,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1986,13 +1992,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -2007,13 +2013,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -2028,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2049,13 +2055,13 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -2070,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2091,13 +2097,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2112,13 +2118,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2133,13 +2139,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -2154,13 +2160,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2175,13 +2181,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2196,13 +2202,13 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -2217,13 +2223,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2238,13 +2244,13 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -2261,16 +2267,16 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2282,16 +2288,16 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2303,16 +2309,16 @@
         <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2324,16 +2330,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2345,16 +2351,16 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2366,16 +2372,16 @@
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2387,13 +2393,13 @@
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
@@ -2410,13 +2416,13 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
@@ -2447,13 +2453,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2485,7 +2491,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2497,13 +2503,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2529,7 +2535,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2541,13 +2547,13 @@
         <v>3.25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2573,7 +2579,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2585,13 +2591,13 @@
         <v>11.7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2627,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2639,7 +2645,7 @@
         <v>20.59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1">
         <v>724027.56</v>
@@ -2650,7 +2656,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2662,7 +2668,7 @@
         <v>20.59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2">
         <v>724027.56</v>
@@ -2673,7 +2679,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2685,7 +2691,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>12717111.88</v>
@@ -2706,22 +2712,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2729,22 +2735,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2752,22 +2758,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2788,19 +2794,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2811,19 +2817,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2831,10 +2837,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2846,10 +2852,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2861,10 +2867,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2876,10 +2882,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2891,10 +2897,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2906,10 +2912,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2921,10 +2927,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2936,10 +2942,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -227,57 +227,66 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託銀行南台南簡易分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行北台南分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託銀行南台南簡易分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行北台南分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
@@ -293,13 +302,13 @@
     <t>趙〇雅</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國票金控</t>
@@ -1858,13 +1867,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1875,561 +1884,1097 @@
         <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>129770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>129770</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>855</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>4280</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>855</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>2324</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>855</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>13542</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>855</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>855</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>5960</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>855</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>6043485</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>855</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>31412</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>855</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>815740</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>855</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>3072</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>855</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>6231</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>855</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>49311</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>855</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>327925</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>855</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>528985</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>855</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1587773</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>855</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>51656</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
+        <v>855</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>17523</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>855</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="2">
-        <v>178728.64</v>
-      </c>
-      <c r="G19" s="2">
         <v>679168.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>855</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
         <v>251939</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>855</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2">
         <v>627</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>855</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2">
         <v>147900</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2">
+        <v>855</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>855</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2">
+        <v>159527</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>855</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="2">
         <v>83</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>159527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2">
         <v>590</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>855</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="2">
-        <v>77.01</v>
-      </c>
-      <c r="G26" s="2">
         <v>2270.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>855</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>117106</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>855</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2453,13 +2998,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2491,7 +3036,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2503,13 +3048,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2535,7 +3080,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2547,13 +3092,13 @@
         <v>3.25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2">
         <v>1111500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2579,7 +3124,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2591,13 +3136,13 @@
         <v>11.7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2">
         <v>177840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2633,7 +3178,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2645,7 +3190,7 @@
         <v>20.59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1">
         <v>724027.56</v>
@@ -2656,7 +3201,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2668,7 +3213,7 @@
         <v>20.59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2">
         <v>724027.56</v>
@@ -2679,7 +3224,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2691,7 +3236,7 @@
         <v>431381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
         <v>12717111.88</v>
@@ -2712,22 +3257,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2735,22 +3280,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2758,22 +3303,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2794,19 +3339,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2817,19 +3362,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2837,10 +3382,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2852,10 +3397,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2867,10 +3412,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2882,10 +3427,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2897,10 +3442,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2912,10 +3457,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2927,10 +3472,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2942,10 +3487,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>富蘭克林TANO印度私募基金</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>長期擔保貸款</t>
@@ -3170,33 +3173,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1192.81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20.59</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1">
-        <v>724027.56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>110</v>
       </c>
@@ -3207,7 +3231,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>1192.81</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="2">
         <v>20.59</v>
@@ -3218,8 +3242,29 @@
       <c r="G2" s="2">
         <v>724027.56</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>111</v>
       </c>
@@ -3240,6 +3285,27 @@
       </c>
       <c r="G3" s="2">
         <v>12717111.88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3257,22 +3323,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>1185455</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3280,22 +3346,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3303,22 +3369,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3339,19 +3405,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3362,19 +3428,19 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3382,10 +3448,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3397,10 +3463,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3412,10 +3478,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3427,10 +3493,10 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3442,10 +3508,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3457,10 +3523,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3472,10 +3538,10 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3487,10 +3553,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
+++ b/legislator/property/output/normal/葉宜津_2012-03-06_財產申報表_tmp94f81.xlsx
@@ -15,13 +15,14 @@
     <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
     <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="備註" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -332,27 +333,42 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>長期擔保貸款</t>
   </si>
   <si>
     <t>台灣土地銀行民權分行臺北市中山區民權西路</t>
   </si>
   <si>
+    <t>華南銀行新營分行臺南市新營區新進路</t>
+  </si>
+  <si>
     <t>88年04月07日</t>
   </si>
   <si>
+    <t>100年04月15日</t>
+  </si>
+  <si>
     <t>88年4月7曰</t>
   </si>
   <si>
-    <t>華南銀行新營分行臺南市新營區新進路</t>
-  </si>
-  <si>
-    <t>100年04月15日</t>
-  </si>
-  <si>
     <t>100年4月15曰</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>美國BlackhawkGold有限責任公司</t>
   </si>
   <si>
@@ -365,15 +381,15 @@
     <t>投資</t>
   </si>
   <si>
-    <t>(十三）備</t>
-  </si>
-  <si>
-    <t>1.葉宜津</t>
+    <t>investment</t>
   </si>
   <si>
     <t>2.葉宜津：</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>3.葉宜津：</t>
   </si>
   <si>
@@ -387,12 +403,6 @@
   </si>
   <si>
     <t>7.趙哲宏：</t>
-  </si>
-  <si>
-    <t>註</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
   </si>
   <si>
     <t>中國人壽</t>
@@ -3315,61 +3325,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1185455</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>1185455</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -3381,10 +3433,31 @@
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3394,33 +3467,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1">
-        <v>500000</v>
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>136</v>
       </c>
@@ -3428,140 +3522,128 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>144</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>145</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>146</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
